--- a/pearson_tables/tp_netherlands_cumul-1-9.xlsx
+++ b/pearson_tables/tp_netherlands_cumul-1-9.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6806657248075672</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6082950825936885</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.6637588352661753</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.6381903261616778</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.6366959700027879</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6950558463991963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7264203152079464</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.6882877931179454</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6891995367352635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.7233470860343135</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7078345608249912</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.724441943204135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.8293064430433529</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6809313919520683</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.7388316095707418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.728805076646412</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6383833352272695</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.8392202074646774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5400090630139003</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5918654473119159</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.6189748495024101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5017068317000586</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.6685863893549842</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.7944160564090711</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
